--- a/1000.xlsx
+++ b/1000.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>hdu 5540 Secrete Master Plan</t>
   </si>
@@ -41,6 +41,30 @@
   </si>
   <si>
     <t>hdu 5551 Huatuo's Medicine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poj 2632 Crashing Robots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poj 1321 棋盘问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-水 1-等 2-高 3-极</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poj 1077</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A*，IDA*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最短路</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,86 +428,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>42703.943738425929</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>999</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>42703.943738425929</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>998</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>42703.943738425929</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>997</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1">
         <v>42703.943738425929</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>996</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2"/>
+      <c r="D6" s="1">
         <v>42703.943738425929</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>995</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>42703.943738425929</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>994</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>42704.016736111109</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>993</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>42704.571527777778</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>992</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>42705.530150462961</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/1000.xlsx
+++ b/1000.xlsx
@@ -56,15 +56,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>poj 1077</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A*，IDA*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最短路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poj 1077 Eight</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,7 +431,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -497,7 +497,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
         <v>42703.943738425929</v>
@@ -568,10 +568,10 @@
         <v>992</v>
       </c>
       <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
       </c>
       <c r="D10" s="1">
         <v>42705.530150462961</v>

--- a/1000.xlsx
+++ b/1000.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>hdu 5540 Secrete Master Plan</t>
   </si>
@@ -65,6 +65,22 @@
   </si>
   <si>
     <t>poj 1077 Eight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poj 1606 Jugs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通dfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nkoj 2147 关押罪犯Prison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并查集 处理好可以很快</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -580,6 +596,37 @@
         <v>2</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>991</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
+        <v>42719.719421296293</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1">
+        <v>42719.720034722224</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
